--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Documents\Study\Software Systems\project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Documents\Study\Software Systems\project3\CIS505_Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -193,25 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +489,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,248 +511,248 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="4">
         <v>1.5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="9">
-        <v>3</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="9">
-        <v>4</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="E15" s="5">
         <v>0</v>
       </c>
     </row>
